--- a/data/output/FV2504_FV2410/UTILMD/55036.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55036.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="219">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="219">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -806,6 +806,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U96" totalsRowShown="0">
+  <autoFilter ref="A1:U96"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1095,7 +1125,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5282,5 +5315,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55036.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55036.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="313">
   <si>
     <t>#</t>
   </si>
@@ -4475,44 +4475,42 @@
       </c>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M64" s="5" t="s">
+      <c r="K64" s="2"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5" t="s">
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="V64" s="5"/>
+      <c r="V64" s="2"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -4683,44 +4681,42 @@
       <c r="V67" s="5"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5" t="s">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K68" s="5"/>
-      <c r="L68" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M68" s="5" t="s">
+      <c r="K68" s="2"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N68" s="5" t="s">
+      <c r="N68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5" t="s">
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="V68" s="5"/>
+      <c r="V68" s="2"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -5586,9 +5582,7 @@
         <v>174</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>189</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>37</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILMD/55036.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55036.xlsx
@@ -1072,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1095,6 +1095,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1103,6 +1106,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1545,7 +1551,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1913,7 +1919,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2061,7 +2067,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2267,7 +2273,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2577,7 +2583,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2759,24 +2765,24 @@
       <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M26" s="5"/>
@@ -2794,33 +2800,33 @@
       <c r="A27" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M27" s="5"/>
@@ -2838,33 +2844,33 @@
       <c r="A28" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9" t="s">
+      <c r="K28" s="9"/>
+      <c r="L28" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M28" s="5"/>
@@ -2882,31 +2888,31 @@
       <c r="A29" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9" t="s">
+      <c r="K29" s="9"/>
+      <c r="L29" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M29" s="5"/>
@@ -2924,31 +2930,31 @@
       <c r="A30" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9" t="s">
+      <c r="K30" s="9"/>
+      <c r="L30" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M30" s="5"/>
@@ -2966,31 +2972,31 @@
       <c r="A31" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8" t="s">
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9" t="s">
+      <c r="K31" s="9"/>
+      <c r="L31" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M31" s="5"/>
@@ -3008,31 +3014,31 @@
       <c r="A32" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8" t="s">
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9" t="s">
+      <c r="K32" s="9"/>
+      <c r="L32" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M32" s="5"/>
@@ -3060,29 +3066,29 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="O33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11" t="s">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11" t="s">
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="V33" s="11"/>
+      <c r="V33" s="13"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
@@ -3098,33 +3104,33 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="11" t="s">
+      <c r="O34" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11" t="s">
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="U34" s="11" t="s">
+      <c r="U34" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="V34" s="11" t="s">
+      <c r="V34" s="13" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3142,35 +3148,35 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N35" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="11" t="s">
+      <c r="O35" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11" t="s">
+      <c r="S35" s="13"/>
+      <c r="T35" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="U35" s="11" t="s">
+      <c r="U35" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="V35" s="11"/>
+      <c r="V35" s="13"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
@@ -3186,33 +3192,33 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O36" s="11" t="s">
+      <c r="O36" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11" t="s">
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11" t="s">
+      <c r="S36" s="13"/>
+      <c r="T36" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="U36" s="11" t="s">
+      <c r="U36" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="V36" s="11"/>
+      <c r="V36" s="13"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -3228,33 +3234,33 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11" t="s">
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11" t="s">
+      <c r="S37" s="13"/>
+      <c r="T37" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="U37" s="11" t="s">
+      <c r="U37" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="V37" s="11"/>
+      <c r="V37" s="13"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="5" t="s">
@@ -3270,33 +3276,33 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11" t="s">
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11" t="s">
+      <c r="S38" s="13"/>
+      <c r="T38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="U38" s="11" t="s">
+      <c r="U38" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="V38" s="11"/>
+      <c r="V38" s="13"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -3312,33 +3318,33 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="O39" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11" t="s">
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11" t="s">
+      <c r="S39" s="13"/>
+      <c r="T39" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="U39" s="11" t="s">
+      <c r="U39" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="V39" s="11"/>
+      <c r="V39" s="13"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="2" t="s">
@@ -3361,7 +3367,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3671,7 +3677,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -3853,26 +3859,26 @@
       <c r="B50" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M50" s="5"/>
@@ -3890,33 +3896,33 @@
       <c r="A51" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+      <c r="J51" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M51" s="5"/>
@@ -3934,33 +3940,33 @@
       <c r="A52" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M52" s="5"/>
@@ -3988,29 +3994,29 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11" t="s">
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11" t="s">
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="V53" s="11"/>
+      <c r="V53" s="13"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
@@ -4026,35 +4032,35 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="R54" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11" t="s">
+      <c r="S54" s="13"/>
+      <c r="T54" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="U54" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="V54" s="11"/>
+      <c r="U54" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="V54" s="13"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -4070,52 +4076,52 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="U55" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="V55" s="11"/>
+      <c r="U55" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
       <c r="J56" s="6" t="s">
         <v>180</v>
       </c>
@@ -4125,18 +4131,18 @@
       <c r="L56" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="M56" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="N56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
       <c r="U56" s="6" t="s">
         <v>215</v>
       </c>
@@ -4326,25 +4332,25 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11" t="s">
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="V60" s="11" t="s">
+      <c r="V60" s="13" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4362,29 +4368,29 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11" t="s">
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11" t="s">
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="V61" s="11"/>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4400,35 +4406,35 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q62" s="11" t="s">
+      <c r="Q62" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="R62" s="11" t="s">
+      <c r="R62" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4444,33 +4450,33 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q63" s="11" t="s">
+      <c r="Q63" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="U63" s="11" t="s">
+      <c r="U63" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="V63" s="11" t="s">
+      <c r="V63" s="13" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4495,7 +4501,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -4701,7 +4707,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -4889,22 +4895,22 @@
       <c r="B72" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8" t="s">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K72" s="8" t="s">
+      <c r="K72" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="L72" s="9" t="s">
+      <c r="L72" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M72" s="5"/>
@@ -4922,27 +4928,27 @@
       <c r="A73" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8" t="s">
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="9" t="s">
+      <c r="K73" s="9"/>
+      <c r="L73" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M73" s="5"/>
@@ -4960,33 +4966,33 @@
       <c r="A74" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8" t="s">
+      <c r="H74" s="9"/>
+      <c r="I74" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J74" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="9" t="s">
+      <c r="J74" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K74" s="9"/>
+      <c r="L74" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M74" s="5"/>
@@ -5007,24 +5013,24 @@
       <c r="B75" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="s">
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8" t="s">
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="9" t="s">
+      <c r="K75" s="9"/>
+      <c r="L75" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M75" s="5"/>
@@ -5042,33 +5048,33 @@
       <c r="A76" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8" t="s">
+      <c r="H76" s="9"/>
+      <c r="I76" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J76" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="9" t="s">
+      <c r="J76" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M76" s="5"/>
@@ -5086,33 +5092,33 @@
       <c r="A77" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8" t="s">
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="J77" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="K77" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="L77" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M77" s="5"/>
@@ -5133,20 +5139,20 @@
       <c r="B78" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8" t="s">
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="K78" s="8"/>
-      <c r="L78" s="9" t="s">
+      <c r="K78" s="9"/>
+      <c r="L78" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M78" s="5"/>
@@ -5164,27 +5170,27 @@
       <c r="A79" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
+      <c r="E79" s="9"/>
+      <c r="F79" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="9" t="s">
+      <c r="K79" s="9"/>
+      <c r="L79" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M79" s="5"/>
@@ -5202,33 +5208,33 @@
       <c r="A80" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8" t="s">
+      <c r="H80" s="9"/>
+      <c r="I80" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="9" t="s">
+      <c r="J80" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M80" s="5"/>
@@ -5246,33 +5252,33 @@
       <c r="A81" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8" t="s">
+      <c r="H81" s="9"/>
+      <c r="I81" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="9" t="s">
+      <c r="J81" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M81" s="5"/>
@@ -5287,21 +5293,21 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
       <c r="J82" s="6" t="s">
         <v>182</v>
       </c>
@@ -5311,18 +5317,18 @@
       <c r="L82" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="M82" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
       <c r="U82" s="6" t="s">
         <v>217</v>
       </c>
@@ -5615,24 +5621,24 @@
       <c r="B88" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8" t="s">
+      <c r="E88" s="9"/>
+      <c r="F88" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8" t="s">
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9" t="s">
+      <c r="K88" s="9"/>
+      <c r="L88" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M88" s="5"/>
@@ -5650,33 +5656,33 @@
       <c r="A89" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8" t="s">
+      <c r="H89" s="9"/>
+      <c r="I89" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J89" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="9" t="s">
+      <c r="J89" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K89" s="9"/>
+      <c r="L89" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M89" s="5"/>
@@ -5694,33 +5700,33 @@
       <c r="A90" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8" t="s">
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="J90" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K90" s="8" t="s">
+      <c r="K90" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="L90" s="9" t="s">
+      <c r="L90" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M90" s="5"/>
@@ -5741,22 +5747,22 @@
       <c r="B91" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8" t="s">
+      <c r="C91" s="9"/>
+      <c r="D91" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8" t="s">
+      <c r="E91" s="9"/>
+      <c r="F91" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8" t="s">
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="9" t="s">
+      <c r="K91" s="9"/>
+      <c r="L91" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M91" s="5"/>
@@ -5774,29 +5780,29 @@
       <c r="A92" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8" t="s">
+      <c r="C92" s="9"/>
+      <c r="D92" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8" t="s">
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J92" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="9" t="s">
+      <c r="J92" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M92" s="5"/>
@@ -5814,29 +5820,29 @@
       <c r="A93" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8" t="s">
+      <c r="C93" s="9"/>
+      <c r="D93" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8" t="s">
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="J93" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="9" t="s">
+      <c r="J93" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K93" s="9"/>
+      <c r="L93" s="10" t="s">
         <v>190</v>
       </c>
       <c r="M93" s="5"/>
@@ -5864,27 +5870,27 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="10" t="s">
+      <c r="L94" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M94" s="11" t="s">
+      <c r="M94" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11" t="s">
+      <c r="N94" s="13"/>
+      <c r="O94" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11" t="s">
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11"/>
-      <c r="U94" s="11" t="s">
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="V94" s="11"/>
+      <c r="V94" s="13"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="5" t="s">
@@ -5900,31 +5906,31 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="10" t="s">
+      <c r="L95" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M95" s="11" t="s">
+      <c r="M95" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11" t="s">
+      <c r="N95" s="13"/>
+      <c r="O95" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P95" s="11" t="s">
+      <c r="P95" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="Q95" s="11" t="s">
+      <c r="Q95" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11" t="s">
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="U95" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="V95" s="11"/>
+      <c r="U95" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="V95" s="13"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="5" t="s">
@@ -5940,31 +5946,31 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="10" t="s">
+      <c r="L96" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M96" s="11" t="s">
+      <c r="M96" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11" t="s">
+      <c r="N96" s="13"/>
+      <c r="O96" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P96" s="11" t="s">
+      <c r="P96" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Q96" s="11" t="s">
+      <c r="Q96" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11" t="s">
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U96" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="V96" s="11"/>
+      <c r="U96" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="V96" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
